--- a/CFFW/PC Hit Calc Xlsxs/EAL.xlsx
+++ b/CFFW/PC Hit Calc Xlsxs/EAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/xander3_colostate_edu/Documents/Xander Personal/Code/eclipse-workspace/CFFW/PC Hit Calc Xlsxs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\PC Hit Calc Xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{4E470330-83CE-4E12-AEF5-FAE5BB6F6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1053C2D-CF1D-4C03-BDB8-DEF0C9C996EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE269D2A-BA37-4A46-A5D8-921AFF853F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="3165" windowWidth="27285" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,8 +343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
